--- a/documents/fiche_de_personnage_2025.xlsx
+++ b/documents/fiche_de_personnage_2025.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\logve\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ND133\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C1E0D2-3AC4-4F49-A04A-5A8B7D665A34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C749515-BC13-45E4-AF0F-35EC22EBCEAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{2CCEA79F-E9EC-0C42-8879-50C18F95B055}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{2CCEA79F-E9EC-0C42-8879-50C18F95B055}"/>
   </bookViews>
   <sheets>
     <sheet name="Fiche" sheetId="1" r:id="rId1"/>
     <sheet name="Données" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Fiche!$A$1:$D$31</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Fiche!$A$1:$D$33</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
   <si>
     <t>Fiche de personnage</t>
   </si>
@@ -138,9 +138,6 @@
     <t>Forgeron</t>
   </si>
   <si>
-    <t>Demi Elf</t>
-  </si>
-  <si>
     <t>Elfe des ténèbres</t>
   </si>
   <si>
@@ -157,13 +154,31 @@
   </si>
   <si>
     <t>Gratuit</t>
+  </si>
+  <si>
+    <t>Herboriste</t>
+  </si>
+  <si>
+    <t>Demi Elfe</t>
+  </si>
+  <si>
+    <t>Mana/Ferveur</t>
+  </si>
+  <si>
+    <t>Points d'EXP</t>
+  </si>
+  <si>
+    <t>Totaux d'expérience dépensés</t>
+  </si>
+  <si>
+    <t>Background</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -195,6 +210,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -222,7 +243,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -289,11 +310,101 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -312,6 +423,47 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -328,6 +480,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -420,7 +578,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -736,36 +894,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E39EE8C0-BEDB-6147-A481-E38FE4275BBC}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="26.25" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="26.25" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="19" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.25" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.875" style="1"/>
+    <col min="5" max="7" width="10.875" style="1"/>
+    <col min="8" max="8" width="6" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="61.5" x14ac:dyDescent="0.85">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
     </row>
     <row r="2" spans="1:7" ht="33" x14ac:dyDescent="0.45">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="2"/>
@@ -788,9 +948,9 @@
       <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
     </row>
     <row r="7" spans="1:7" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:7" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -801,9 +961,7 @@
       <c r="C8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="6">
-        <v>1</v>
-      </c>
+      <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:7" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
@@ -811,186 +969,243 @@
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="6"/>
+        <v>41</v>
+      </c>
+      <c r="D9" s="15"/>
     </row>
     <row r="10" spans="1:7" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="6"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="16"/>
+    </row>
+    <row r="11" spans="1:7" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" spans="1:7" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:7" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="1:7" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:7" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-    </row>
-    <row r="13" spans="1:7" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+    </row>
+    <row r="14" spans="1:7" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B14" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C14" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="16">
+      <c r="D14" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="31">
         <v>1</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="G14"/>
-    </row>
-    <row r="15" spans="1:7" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="16"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
+      <c r="G15"/>
     </row>
     <row r="16" spans="1:7" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="17">
+      <c r="A16" s="31"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" spans="1:8" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="32">
         <v>2</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-    </row>
-    <row r="17" spans="1:4" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
     </row>
-    <row r="18" spans="1:4" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="16">
+    <row r="18" spans="1:8" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="32"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+    </row>
+    <row r="19" spans="1:8" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="31">
         <v>3</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-    </row>
-    <row r="19" spans="1:4" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
     </row>
-    <row r="20" spans="1:4" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="17">
+    <row r="20" spans="1:8" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="31"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+    </row>
+    <row r="21" spans="1:8" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="32">
         <v>4</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-    </row>
-    <row r="21" spans="1:4" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="17"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
     </row>
-    <row r="22" spans="1:4" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="16">
+    <row r="22" spans="1:8" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="32"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+    </row>
+    <row r="23" spans="1:8" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="31">
         <v>5</v>
       </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-    </row>
-    <row r="23" spans="1:4" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="16"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
     </row>
-    <row r="24" spans="1:4" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
-    </row>
-    <row r="25" spans="1:4" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="18" t="s">
+    <row r="24" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="31"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="19"/>
+    </row>
+    <row r="25" spans="1:8" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="14"/>
+      <c r="C25" s="6"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="22"/>
+    </row>
+    <row r="26" spans="1:8" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="9"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="22"/>
+    </row>
+    <row r="27" spans="1:8" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-    </row>
-    <row r="26" spans="1:4" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-    </row>
-    <row r="27" spans="1:4" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-    </row>
-    <row r="28" spans="1:4" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-    </row>
-    <row r="29" spans="1:4" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-    </row>
-    <row r="30" spans="1:4" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A31" s="15" t="s">
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="22"/>
+    </row>
+    <row r="28" spans="1:8" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="33"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="22"/>
+    </row>
+    <row r="29" spans="1:8" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="33"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="22"/>
+    </row>
+    <row r="30" spans="1:8" s="5" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="33"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="22"/>
+    </row>
+    <row r="31" spans="1:8" s="5" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="33"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="22"/>
+    </row>
+    <row r="32" spans="1:8" s="5" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="31"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="26"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A33" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
+  <mergeCells count="23">
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="A27:D27"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="C28:D28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E25:H32"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="B6:D6"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A13:D13"/>
     <mergeCell ref="C30:D30"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A26:B26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -1027,10 +1242,10 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
@@ -1067,7 +1282,7 @@
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1100,21 +1315,24 @@
         <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>20</v>
       </c>
+      <c r="E8" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -1123,12 +1341,12 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
